--- a/data/trans_bre/P35A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-16,88</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-19,47</t>
+          <t>-15,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-54,01%</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>-16,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-65,18%</t>
+          <t>-47,37%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-60,49%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-32,33%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 2,62</t>
+          <t>-18,54; 12,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 31,51</t>
+          <t>-23,38; 6,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,63; -2,71</t>
+          <t>-35,7; 0,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-86,71; 21,37</t>
+          <t>-30,69; 9,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,11; 216,78</t>
+          <t>-79,02; 322,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-90,25; -1,75</t>
+          <t>-91,25; 307,55</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-88,25; 29,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-75,1; 81,31</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,58</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,33</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-44,59%</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-68,13%</t>
+          <t>-17,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-35,95%</t>
+          <t>-47,14%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93,94%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,06; 4,53</t>
+          <t>-14,93; 9,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,75; -8,99</t>
+          <t>-25,03; 7,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 8,28</t>
+          <t>-12,24; 10,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,43; 61,2</t>
+          <t>-5,1; 24,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,43; -19,12</t>
+          <t>-78,93; 221,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,75; 44,13</t>
+          <t>-83,74; 85,9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-76,62; 361,15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-44,94; 957,26</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-26,18%</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-25,24%</t>
+          <t>-63,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-41,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-27,05%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-60,29%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 7,89</t>
+          <t>-18,01; 0,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 7,48</t>
+          <t>-13,37; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 12,83</t>
+          <t>-12,0; 5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-79,51; 180,37</t>
+          <t>-20,43; -0,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,34; 129,73</t>
+          <t>-89,55; 22,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,89; 203,79</t>
+          <t>-87,6; 154,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-75,2; 214,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-86,56; 4,76</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,56</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-76,19%</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>-72,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-67,54%</t>
+          <t>-36,53%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-77,51%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-73,85%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -2,54</t>
+          <t>-13,14; 0,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 9,87</t>
+          <t>-11,6; 4,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,96; -0,47</t>
+          <t>-18,05; -2,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 9,09</t>
+          <t>-19,68; -2,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,25; 198,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,5; 18,79</t>
+          <t>-87,26; 144,87</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-95,49; -9,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-94,06; -5,13</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-9,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-75,41%</t>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-74,0%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -0,99</t>
+          <t>-10,01; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -4,24</t>
+          <t>-14,05; -2,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 0,46</t>
+          <t>-13,45; -1,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-25,76; 0,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 82,34</t>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 113,02</t>
         </is>
       </c>
     </row>
@@ -1009,27 +1125,37 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-5,12</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-23,74%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-59,23%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-64,57%</t>
         </is>
       </c>
     </row>
@@ -1047,25 +1173,35 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 9,49</t>
+          <t>-12,6; 3,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -2,44</t>
+          <t>-13,39; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-18,96; 2,77</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-43,59%</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-25,75%</t>
+          <t>-44,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-48,37%</t>
+          <t>-50,25%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-54,42%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-43,32%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -0,55</t>
+          <t>-7,56; -0,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,28</t>
+          <t>-9,86; -1,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -3,02</t>
+          <t>-10,64; -1,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-68,84; -1,73</t>
+          <t>-11,99; -0,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-55,49; 27,35</t>
+          <t>-69,84; 1,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-68,63; -18,16</t>
+          <t>-72,07; -12,23</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-73,77; -17,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-66,19; -3,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P35A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P35A_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-15,39</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-8,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-16,26%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-47,37%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-60,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-32,33%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.134893428775801</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.940796172145323</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-17.11831678247638</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-7.25101043935085</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1537927532130712</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.5187793556245397</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.6210685624545533</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2729367416130005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,54; 12,09</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-23,38; 6,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-35,7; 0,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-30,69; 9,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-79,02; 322,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-91,25; 307,55</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-88,25; 29,19</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-75,1; 81,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.72110985499369</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-26.15607130433808</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-38.60311478054798</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-29.8142511927104</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.8123639489223436</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.9313607588102941</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8953813260806357</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7417941409690345</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.03751556087081</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.91691858275828</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.780127628675549</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.52420202099122</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.47728559497053</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.221805349748601</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1321005205993599</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9293188274512381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,6</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-17,32%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-47,14%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,24%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>93,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,93; 9,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-25,03; 7,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,24; 10,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 24,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-78,93; 221,32</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-83,74; 85,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-76,62; 361,15</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-44,94; 957,26</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.06309590447052399</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-9.432597688777058</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.956097716185119</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.264569225446703</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.006389334331928896</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4972399744136354</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1985692160628642</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.012291268177484</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,56</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-63,48%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-41,59%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-27,05%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-60,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.08960301774204</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.92910750223447</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.15398120932386</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.496327880018371</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7332392240990506</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8450947989025916</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8119378758377795</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4551413076317729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,01; 0,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,37; 3,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,0; 5,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-20,43; -0,58</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-89,55; 22,52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-87,6; 154,35</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-75,2; 214,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-86,56; 4,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.09108460885109</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.281820009159558</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.636799550147957</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.00329808598371</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>3.59091049654339</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8264956231410585</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.598725587171924</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>8.245157579120146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,6</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-10,07</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-72,65%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-36,53%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-77,51%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-73,85%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.653354840789582</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.217680308660722</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.753657375802996</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-10.07660080312289</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.5959691047484947</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.409450304722719</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4854202114522565</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6400968722264501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,14; 0,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,6; 4,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-18,05; -2,82</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; -2,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-87,26; 144,87</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-95,49; -9,98</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-94,06; -5,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.19395291275998</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.61894682257322</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.53681307888394</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-21.73018375209083</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.882825855628469</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8731725095791926</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8426809615920627</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8762234906254043</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.9832940194933906</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.510839789082182</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.54116683952328</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-1.395457423490527</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.4719072021234613</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.782835093133031</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.020449912523425</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.07675127770764578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,86</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-9,4</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-74,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 0,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,05; -2,3</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-13,45; -1,42</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-25,76; 0,77</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 113,02</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-5.902576448589433</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.565998146853173</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-10.43252500229167</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-10.23705944007633</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.7622320610804039</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4303887784202775</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.7891619994545256</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.744198797994622</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,9</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-59,23%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-64,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.27765197049707</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.57462384387686</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-20.33515130487685</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-19.82412783339795</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.8898406088252312</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.982512766843668</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.9380476602165979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 3,47</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,39; 0,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-18,96; 2,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.4471153563914578</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.639431522520002</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-3.549787460699933</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-2.555904669435584</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>1.216193287365602</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.1790853669451751</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.02631732930988588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1023,263 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-5,37</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-6,09</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-5,9</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-44,99%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-50,25%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-54,42%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-43,32%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.819444531362893</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.990143729625305</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-5.285775588966348</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-8.696245100608646</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.7001219446088247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; -0,06</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; -1,42</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-10,64; -1,72</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,99; -0,78</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-69,84; 1,05</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-72,07; -12,23</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-73,77; -17,19</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-66,19; -3,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.26802519347561</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.98733263246135</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-12.66867841040428</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-25.45595857374745</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="inlineStr"/>
+      <c r="J17" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-2.109330570971448</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-1.323729197990935</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.682672259483121</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="inlineStr"/>
+      <c r="J18" s="6" t="n">
+        <v>1.283350472792618</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-3.004217392209455</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-2.617518851366163</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-4.979538039620032</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="n">
+        <v>-0.6276865506448454</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.6496307078869423</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="n">
+        <v>-12.68803776124381</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-13.26610625900098</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-18.22547990391889</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="n">
+        <v>2.653175937870808</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.649049994276235</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.180270466260631</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.429993877842008</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-7.415737002488116</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-5.81018591219072</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.4030156208107171</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.5236565216613329</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.6057105554561988</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.4231171946082263</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.995636626124921</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-10.04439203265465</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.69644476194656</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-12.03145679097851</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.6748942101277154</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.7309484071420809</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.773835468296704</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.6663660441895891</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.3568644392123225</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-1.611351996097517</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-2.710248966841366</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-0.379122320161994</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.09865523733664416</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>-0.1586930150108139</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>-0.2817763780399192</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>-0.02054664524398629</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1287,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
